--- a/testData/NearbyDoctors_TestData.xlsx
+++ b/testData/NearbyDoctors_TestData.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="27">
   <si>
     <t>Location</t>
   </si>
@@ -88,6 +88,36 @@
   </si>
   <si>
     <t>Dr. S C Rajendran</t>
+  </si>
+  <si>
+    <t>Dr. Rajashekhar G</t>
+  </si>
+  <si>
+    <t>Dr. Sreedhar Reddy Pothula</t>
+  </si>
+  <si>
+    <t>Dr. Pradeep Nayak</t>
+  </si>
+  <si>
+    <t>Dr. Christopher Leo Hu</t>
+  </si>
+  <si>
+    <t>Dr. Goutham A</t>
+  </si>
+  <si>
+    <t>Dr. Jomin Jose</t>
+  </si>
+  <si>
+    <t>Dr. Deepak</t>
+  </si>
+  <si>
+    <t>Dr. Sarath Chandra</t>
+  </si>
+  <si>
+    <t>Dr. Hrishikesh Bhowmick</t>
+  </si>
+  <si>
+    <t>Dr. Javad Saleem</t>
   </si>
 </sst>
 </file>
@@ -544,22 +574,22 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s" s="0">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
